--- a/Nguyen Thi Hong Nhung_Assignment 1.xlsx
+++ b/Nguyen Thi Hong Nhung_Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54014827-A86E-43D0-9C47-D5B4A027B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C843E0-6D07-4E78-8F19-F20A75340B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employe_Performance_dataset" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,6 @@
     <pivotCache cacheId="0" r:id="rId4"/>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -727,7 +714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -833,9 +820,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -922,6 +909,17 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -1015,18 +1013,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1165,8 +1152,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sum of Salary by Department</a:t>
+              <a:rPr lang="vi-VN" sz="1600">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> of Salary by Department</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1548,9 +1543,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Count of Location</a:t>
+              <a:rPr lang="vi-VN"/>
+              <a:t>Number of employees by location</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9069,7 +9065,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Salary" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="166"/>
+    <dataField name="Average of Salary" fld="5" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
     <format dxfId="14">
@@ -9081,23 +9077,23 @@
     <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9239,10 +9235,10 @@
     <dataField name="Count of Location" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="11">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="4">
@@ -9587,10 +9583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1005"/>
+  <dimension ref="A1:L1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -9610,7 +9606,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9648,7 +9644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9685,12 +9681,8 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1">
-        <f>MODE(Table1[[#All],[Performance Score]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9728,7 +9720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9763,7 +9755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9801,7 +9793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9839,7 +9831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9877,7 +9869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9912,7 +9904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9947,7 +9939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9982,7 +9974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10020,7 +10012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10058,7 +10050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10096,7 +10088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10131,7 +10123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10166,7 +10158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -19314,8 +19306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A3:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19371,7 +19363,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
